--- a/classeurs/tri.xlsx
+++ b/classeurs/tri.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Activité 10" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Activité 11" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Activité 14" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Activité 15" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -272,11 +272,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -353,10 +353,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -368,11 +368,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -449,10 +449,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>